--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H2">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I2">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J2">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>15805.32818464956</v>
+        <v>8502.982369117502</v>
       </c>
       <c r="R2">
-        <v>63221.31273859824</v>
+        <v>34011.92947647001</v>
       </c>
       <c r="S2">
-        <v>0.1001746898558882</v>
+        <v>0.1033603606992788</v>
       </c>
       <c r="T2">
-        <v>0.06418610872354236</v>
+        <v>0.0685919658390873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H3">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I3">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J3">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>11405.64049316497</v>
+        <v>5010.281073636164</v>
       </c>
       <c r="R3">
-        <v>68433.84295898982</v>
+        <v>30061.68644181699</v>
       </c>
       <c r="S3">
-        <v>0.07228932456589122</v>
+        <v>0.06090386131537412</v>
       </c>
       <c r="T3">
-        <v>0.06947818535020404</v>
+        <v>0.06062549820670956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H4">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I4">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J4">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>8118.103541373805</v>
+        <v>3274.237636915719</v>
       </c>
       <c r="R4">
-        <v>48708.62124824283</v>
+        <v>19645.42582149431</v>
       </c>
       <c r="S4">
-        <v>0.05145280724160677</v>
+        <v>0.03980090378593682</v>
       </c>
       <c r="T4">
-        <v>0.04945194466524897</v>
+        <v>0.03961899244129905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H5">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I5">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J5">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>13436.21770764059</v>
+        <v>7257.797650744996</v>
       </c>
       <c r="R5">
-        <v>53744.87083056237</v>
+        <v>29031.19060297998</v>
       </c>
       <c r="S5">
-        <v>0.08515918973490978</v>
+        <v>0.08822417247246844</v>
       </c>
       <c r="T5">
-        <v>0.05456505050324749</v>
+        <v>0.05854729398651883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H6">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I6">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J6">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>11690.76688882836</v>
+        <v>2524.972598539382</v>
       </c>
       <c r="R6">
-        <v>70144.60133297018</v>
+        <v>15149.8355912363</v>
       </c>
       <c r="S6">
-        <v>0.07409646503913038</v>
+        <v>0.03069300478485084</v>
       </c>
       <c r="T6">
-        <v>0.07121505094560909</v>
+        <v>0.03055272139326216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>96.0359115</v>
+        <v>42.1867505</v>
       </c>
       <c r="H7">
-        <v>192.071823</v>
+        <v>84.373501</v>
       </c>
       <c r="I7">
-        <v>0.431645037026614</v>
+        <v>0.3672187856582576</v>
       </c>
       <c r="J7">
-        <v>0.355483932052054</v>
+        <v>0.3019707701631917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>7647.887197500403</v>
+        <v>3639.132343170724</v>
       </c>
       <c r="R7">
-        <v>45887.32318500242</v>
+        <v>21834.79405902434</v>
       </c>
       <c r="S7">
-        <v>0.04847256058918763</v>
+        <v>0.04423648260034863</v>
       </c>
       <c r="T7">
-        <v>0.04658759186420203</v>
+        <v>0.04403429829631484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>148.106155</v>
       </c>
       <c r="I8">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J8">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>8124.968911383309</v>
+        <v>9950.549321741701</v>
       </c>
       <c r="R8">
-        <v>48749.81346829986</v>
+        <v>59703.29593045021</v>
       </c>
       <c r="S8">
-        <v>0.05149632018252222</v>
+        <v>0.1209566623102301</v>
       </c>
       <c r="T8">
-        <v>0.04949376550383352</v>
+        <v>0.1204038258921906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>148.106155</v>
       </c>
       <c r="I9">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J9">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>5863.242657079612</v>
+        <v>5863.242657079613</v>
       </c>
       <c r="R9">
-        <v>52769.18391371651</v>
+        <v>52769.18391371652</v>
       </c>
       <c r="S9">
-        <v>0.03716142479681049</v>
+        <v>0.07127227243281278</v>
       </c>
       <c r="T9">
-        <v>0.05357447400598707</v>
+        <v>0.1064197802382901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>148.106155</v>
       </c>
       <c r="I10">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J10">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>4173.234375298444</v>
+        <v>3831.651258688224</v>
       </c>
       <c r="R10">
-        <v>37559.10937768601</v>
+        <v>34484.86132819402</v>
       </c>
       <c r="S10">
-        <v>0.02645009672418403</v>
+        <v>0.04657669967778189</v>
       </c>
       <c r="T10">
-        <v>0.03813228440926907</v>
+        <v>0.06954572900151275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>148.106155</v>
       </c>
       <c r="I11">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J11">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>6907.091702606</v>
+        <v>8493.381540252976</v>
       </c>
       <c r="R11">
-        <v>41442.55021563599</v>
+        <v>50960.28924151786</v>
       </c>
       <c r="S11">
-        <v>0.04377737437851727</v>
+        <v>0.1032436551609898</v>
       </c>
       <c r="T11">
-        <v>0.0420749889348257</v>
+        <v>0.1027717766268573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>148.106155</v>
       </c>
       <c r="I12">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J12">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>6009.816209587672</v>
+        <v>2954.829645309504</v>
       </c>
       <c r="R12">
-        <v>54088.34588628905</v>
+        <v>26593.46680778553</v>
       </c>
       <c r="S12">
-        <v>0.03809041279326545</v>
+        <v>0.0359182513482984</v>
       </c>
       <c r="T12">
-        <v>0.0549137671988633</v>
+        <v>0.05363112869219804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>148.106155</v>
       </c>
       <c r="I13">
-        <v>0.2218936845614064</v>
+        <v>0.4297349423931389</v>
       </c>
       <c r="J13">
-        <v>0.2741128683956469</v>
+        <v>0.5300684357196348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>3931.512524859031</v>
+        <v>4258.666465143334</v>
       </c>
       <c r="R13">
-        <v>35383.61272373128</v>
+        <v>38327.99818629</v>
       </c>
       <c r="S13">
-        <v>0.02491805568610694</v>
+        <v>0.05176740146302598</v>
       </c>
       <c r="T13">
-        <v>0.03592358834286821</v>
+        <v>0.07729619526858605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H14">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I14">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J14">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>15.17325631283767</v>
+        <v>1.342764443141</v>
       </c>
       <c r="R14">
-        <v>91.03953787702599</v>
+        <v>8.056586658846001</v>
       </c>
       <c r="S14">
-        <v>9.616859754412699E-05</v>
+        <v>1.632234563737246E-05</v>
       </c>
       <c r="T14">
-        <v>9.242885702922541E-05</v>
+        <v>1.624774381781312E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H15">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I15">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J15">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>10.94951680806933</v>
+        <v>0.791207953136</v>
       </c>
       <c r="R15">
-        <v>98.54565127262399</v>
+        <v>7.120871578224</v>
       </c>
       <c r="S15">
-        <v>6.939839764829912E-05</v>
+        <v>9.617747735346964E-06</v>
       </c>
       <c r="T15">
-        <v>0.000100049518316237</v>
+        <v>1.436068425274065E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H16">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I16">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J16">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>7.793451952933999</v>
+        <v>0.5170573907353334</v>
       </c>
       <c r="R16">
-        <v>70.141067576406</v>
+        <v>4.653516516618001</v>
       </c>
       <c r="S16">
-        <v>4.93951547966063E-05</v>
+        <v>6.28523453167864E-06</v>
       </c>
       <c r="T16">
-        <v>7.121146326175367E-05</v>
+        <v>9.384761489650677E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H17">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I17">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J17">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>12.89888908166567</v>
+        <v>1.146128757873</v>
       </c>
       <c r="R17">
-        <v>77.393334489994</v>
+        <v>6.876772547238</v>
       </c>
       <c r="S17">
-        <v>8.175358323127475E-05</v>
+        <v>1.393208602334955E-05</v>
       </c>
       <c r="T17">
-        <v>7.857440421384042E-05</v>
+        <v>1.386840896426196E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H18">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I18">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J18">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>11.22324069614133</v>
+        <v>0.3987357938713333</v>
       </c>
       <c r="R18">
-        <v>101.009166265272</v>
+        <v>3.588622144842</v>
       </c>
       <c r="S18">
-        <v>7.113326865340686E-05</v>
+        <v>4.846943541590772E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001025506280577253</v>
+        <v>7.2371856391942E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.09219533333333334</v>
+        <v>0.006662</v>
       </c>
       <c r="H19">
-        <v>0.276586</v>
+        <v>0.019986</v>
       </c>
       <c r="I19">
-        <v>0.0004143830932489008</v>
+        <v>5.799004476666939E-05</v>
       </c>
       <c r="J19">
-        <v>0.000511901627708034</v>
+        <v>7.15294226380573E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>7.342040060392224</v>
+        <v>0.5746804241346667</v>
       </c>
       <c r="R19">
-        <v>66.07836054353001</v>
+        <v>5.172123817211999</v>
       </c>
       <c r="S19">
-        <v>4.653409137518677E-05</v>
+        <v>6.985687297331008E-06</v>
       </c>
       <c r="T19">
-        <v>6.708675682925226E-05</v>
+        <v>1.04306384743967E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H20">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I20">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J20">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>5121.271972730952</v>
+        <v>4645.681787431383</v>
       </c>
       <c r="R20">
-        <v>20485.08789092381</v>
+        <v>18582.72714972553</v>
       </c>
       <c r="S20">
-        <v>0.03245879019672825</v>
+        <v>0.05647187356132483</v>
       </c>
       <c r="T20">
-        <v>0.02079770288881398</v>
+        <v>0.03747584466599756</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H21">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I21">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J21">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>3695.676945539243</v>
+        <v>2737.41265396972</v>
       </c>
       <c r="R21">
-        <v>22174.06167323546</v>
+        <v>16424.47592381832</v>
       </c>
       <c r="S21">
-        <v>0.02342332202797966</v>
+        <v>0.03327537880411314</v>
       </c>
       <c r="T21">
-        <v>0.02251245144632822</v>
+        <v>0.0331232925868216</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H22">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I22">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J22">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>2630.443079223373</v>
+        <v>1788.909525766832</v>
       </c>
       <c r="R22">
-        <v>15782.65847534024</v>
+        <v>10733.45715460099</v>
       </c>
       <c r="S22">
-        <v>0.01667183474878357</v>
+        <v>0.0217455859385518</v>
       </c>
       <c r="T22">
-        <v>0.01602351151791644</v>
+        <v>0.02164619702016709</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H23">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I23">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J23">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>4353.62836897504</v>
+        <v>3965.363786403772</v>
       </c>
       <c r="R23">
-        <v>17414.51347590016</v>
+        <v>15861.45514561509</v>
       </c>
       <c r="S23">
-        <v>0.02759343978908596</v>
+        <v>0.0482020793968893</v>
       </c>
       <c r="T23">
-        <v>0.01768026962605751</v>
+        <v>0.03198784680119131</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H24">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I24">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J24">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>3788.064133058381</v>
+        <v>1379.541754361552</v>
       </c>
       <c r="R24">
-        <v>22728.38479835029</v>
+        <v>8277.25052616931</v>
       </c>
       <c r="S24">
-        <v>0.02400887506099899</v>
+        <v>0.01676940244500645</v>
       </c>
       <c r="T24">
-        <v>0.02307523388211387</v>
+        <v>0.01669275733754984</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.1177355</v>
+        <v>23.049115</v>
       </c>
       <c r="H25">
-        <v>62.235471</v>
+        <v>46.09823</v>
       </c>
       <c r="I25">
-        <v>0.1398624314830591</v>
+        <v>0.2006333249297675</v>
       </c>
       <c r="J25">
-        <v>0.1151845679321301</v>
+        <v>0.1649844779613916</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>2478.082700820243</v>
+        <v>1988.273068767443</v>
       </c>
       <c r="R25">
-        <v>14868.49620492146</v>
+        <v>11929.63841260466</v>
       </c>
       <c r="S25">
-        <v>0.01570616965948269</v>
+        <v>0.02416900478388195</v>
       </c>
       <c r="T25">
-        <v>0.01509539857090012</v>
+        <v>0.02405853954966417</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H26">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I26">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J26">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>7518.57468703982</v>
+        <v>42.89086321464449</v>
       </c>
       <c r="R26">
-        <v>45111.44812223892</v>
+        <v>257.345179287867</v>
       </c>
       <c r="S26">
-        <v>0.04765297364492815</v>
+        <v>0.0005213717846423327</v>
       </c>
       <c r="T26">
-        <v>0.04579987647239526</v>
+        <v>0.0005189888376894045</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H27">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I27">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J27">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>5425.648800173134</v>
+        <v>25.27293023407199</v>
       </c>
       <c r="R27">
-        <v>48830.83920155821</v>
+        <v>227.456372106648</v>
       </c>
       <c r="S27">
-        <v>0.03438794053970898</v>
+        <v>0.0003072121135295854</v>
       </c>
       <c r="T27">
-        <v>0.04957602773944746</v>
+        <v>0.0004587119856347878</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H28">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I28">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J28">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>3861.771617765033</v>
+        <v>16.515955522529</v>
       </c>
       <c r="R28">
-        <v>34755.9445598853</v>
+        <v>148.643599702761</v>
       </c>
       <c r="S28">
-        <v>0.02447603552323587</v>
+        <v>0.000200764278460925</v>
       </c>
       <c r="T28">
-        <v>0.03528634157810231</v>
+        <v>0.0002997700180480597</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H29">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I29">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J29">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>6391.591820556848</v>
+        <v>36.60988495145849</v>
       </c>
       <c r="R29">
-        <v>38349.55092334109</v>
+        <v>219.659309708751</v>
       </c>
       <c r="S29">
-        <v>0.04051011917180955</v>
+        <v>0.0004450216111802402</v>
       </c>
       <c r="T29">
-        <v>0.03893478857742512</v>
+        <v>0.0004429876252155478</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H30">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I30">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J30">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>5561.283067048006</v>
+        <v>12.736502281601</v>
       </c>
       <c r="R30">
-        <v>50051.54760343206</v>
+        <v>114.628520534409</v>
       </c>
       <c r="S30">
-        <v>0.03524759498403853</v>
+        <v>0.0001548220862664327</v>
       </c>
       <c r="T30">
-        <v>0.05081536489978739</v>
+        <v>0.0002311717002153837</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.68416199999999</v>
+        <v>0.212799</v>
       </c>
       <c r="H31">
-        <v>137.052486</v>
+        <v>0.6383969999999999</v>
       </c>
       <c r="I31">
-        <v>0.2053329998124694</v>
+        <v>0.001852330161558462</v>
       </c>
       <c r="J31">
-        <v>0.2536548873219633</v>
+        <v>0.002284807806658053</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>3638.09029592367</v>
+        <v>18.35656253008599</v>
       </c>
       <c r="R31">
-        <v>32742.81266331303</v>
+        <v>165.209062770774</v>
       </c>
       <c r="S31">
-        <v>0.02305833594874833</v>
+        <v>0.0002231382874789464</v>
       </c>
       <c r="T31">
-        <v>0.03324248805480574</v>
+        <v>0.0003331776398548698</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H32">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I32">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J32">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>31.17762784170034</v>
+        <v>11.63836680458467</v>
       </c>
       <c r="R32">
-        <v>187.065767050202</v>
+        <v>69.83020082750799</v>
       </c>
       <c r="S32">
-        <v>0.0001976048306619762</v>
+        <v>0.0001414733958806542</v>
       </c>
       <c r="T32">
-        <v>0.0001899205053204553</v>
+        <v>0.0001408267870545447</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H33">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I33">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J33">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>22.49879347253866</v>
+        <v>6.857769003594666</v>
       </c>
       <c r="R33">
-        <v>202.489141252848</v>
+        <v>61.719921032352</v>
       </c>
       <c r="S33">
-        <v>0.0001425980929919687</v>
+        <v>8.336151329424015E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002055792496674469</v>
+        <v>0.000124470760118771</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H34">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I34">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J34">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>16.013790288718</v>
+        <v>4.481577988707111</v>
       </c>
       <c r="R34">
-        <v>144.124112598462</v>
+        <v>40.334201898364</v>
       </c>
       <c r="S34">
-        <v>0.0001014959295275859</v>
+        <v>5.447706431770376E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001463235348999818</v>
+        <v>8.134211264531209E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H35">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I35">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J35">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>26.50431489905634</v>
+        <v>9.934033446853999</v>
       </c>
       <c r="R35">
-        <v>159.025889394338</v>
+        <v>59.60420068112399</v>
       </c>
       <c r="S35">
-        <v>0.0001679852195308675</v>
+        <v>0.0001207558990119482</v>
       </c>
       <c r="T35">
-        <v>0.0001614527219440543</v>
+        <v>0.000120203980189191</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H36">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I36">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J36">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>23.06123447648266</v>
+        <v>3.456029425635111</v>
       </c>
       <c r="R36">
-        <v>207.551110288344</v>
+        <v>31.104264830716</v>
       </c>
       <c r="S36">
-        <v>0.000146162862573093</v>
+        <v>4.201072429814301E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002107184674532425</v>
+        <v>6.272806934385734E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1894406666666667</v>
+        <v>0.05774266666666666</v>
       </c>
       <c r="H37">
-        <v>0.568322</v>
+        <v>0.173228</v>
       </c>
       <c r="I37">
-        <v>0.0008514640232021932</v>
+        <v>0.0005026268125107878</v>
       </c>
       <c r="J37">
-        <v>0.001051842670497731</v>
+        <v>0.0006199789264858095</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>15.08624041420111</v>
+        <v>4.981023742219555</v>
       </c>
       <c r="R37">
-        <v>135.77616372781</v>
+        <v>44.82921367997599</v>
       </c>
       <c r="S37">
-        <v>9.561708791670185E-05</v>
+        <v>6.054821570809845E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001378481912125498</v>
+        <v>9.040721713413346E-05</v>
       </c>
     </row>
   </sheetData>
